--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_st02.xlsx
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Well, actually, I have no ability to feel "boredom".
+    <t xml:space="preserve">[name="Lancet-2"]  Well, actually, I have no ability to feel 'boredom'.
 </t>
   </si>
   <si>
@@ -1376,7 +1376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="? ??"]  Is there a "Dylan" here?
+    <t xml:space="preserve">[name="? ??"]  Is there a 'Dylan' here?
 </t>
   </si>
   <si>
@@ -1392,7 +1392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  The one called "Doctor" asked me to give you this note.
+    <t xml:space="preserve">[name="Inam"]  The one called 'Doctor' asked me to give you this note.
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  But hey, it may not be a beach, but playing around a waterfall is pretty great too! It’s got that real "back to nature" vibe. Too bad I didn’t bring my camera.
+    <t xml:space="preserve">[name="Utage"]  But hey, it may not be a beach, but playing around a waterfall is pretty great too! It’s got that real 'back to nature' vibe. Too bad I didn’t bring my camera.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_st02.xlsx
@@ -1172,11 +1172,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Isn’t your battery running low?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Oh, don’t worry about that. Before we left, the lovely Ms. Closure fitted me with a brand new, extra long-lasting battery.
+    <t xml:space="preserve">[name="Dylan"]  Isn't your battery running low?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  Oh, don't worry about that. Before we left, the lovely Ms. Closure fitted me with a brand new, extra long-lasting battery.
 </t>
   </si>
   <si>
@@ -1184,7 +1184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  The aircraft is also carrying spare batteries, so you don’t have to worry about me.
+    <t xml:space="preserve">[name="Lancet-2"]  The aircraft is also carrying spare batteries, so you don't have to worry about me.
 </t>
   </si>
   <si>
@@ -1196,35 +1196,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  It’s true, we should be concerned about Ceobe’s condition, but considering her strength and constitution, we don’t need to be too concerned.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  That’s true.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  Hah, I’m bored.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  We fixed up the aircraft, patched up the wounded Gavial sent over, and now we’ve got nothing to do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  That we can’t speak the local language is just a cherry on top. I should’ve gone to that ceremony with the Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  The aircraft is an important Rhodes Island asset, it’s our responsibility to guard it well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  I’m just saying. I mean, I’m a pilot, I know the deal with the aircraft.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  You’re lucky, Lancet-2, you can just switch into sleep mode when you’re bored. I was out for twelve hours yesterday, so I’m wide awake.
+    <t xml:space="preserve">[name="Lancet-2"]  It's true, we should be concerned about Ceobe's condition, but considering her strength and constitution, we don't need to be too concerned.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  That's true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  Hah, I'm bored.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  We fixed up the aircraft, patched up the wounded Gavial sent over, and now we've got nothing to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  That we can't speak the local language is just a cherry on top. I should've gone to that ceremony with the Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  The aircraft is an important Rhodes Island asset, it's our responsibility to guard it well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  I'm just saying. I mean, I'm a pilot, I know the deal with the aircraft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  You're lucky, Lancet-2, you can just switch into sleep mode when you're bored. I was out for twelve hours yesterday, so I'm wide awake.
 </t>
   </si>
   <si>
@@ -1236,11 +1236,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  ...I think about this sometimes, Lancet-2, are we totally sure you and the other bots don’t have a human crammed up in there anywhere?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  We don’t. My interior is a precisely-designed circuitry construct. Do you want to see?
+    <t xml:space="preserve">[name="Dylan"]  ...I think about this sometimes, Lancet-2, are we totally sure you and the other bots don't have a human crammed up in there anywhere?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  We don't. My interior is a precisely-designed circuitry construct. Do you want to see?
 </t>
   </si>
   <si>
@@ -1248,11 +1248,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Err, I’ll pass.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  If was going to see anything, I’d definitely prefer a swimsuit at a time like this.
+    <t xml:space="preserve">[name="Dylan"]  Err, I'll pass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  If was going to see anything, I'd definitely prefer a swimsuit at a time like this.
 </t>
   </si>
   <si>
@@ -1260,15 +1260,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Yeah, it’s summertime. That’s when you put on a swimsuit and go play in the water.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  In that case, I’ll play an audio recording of various sea sounds for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  No thanks, it’d only make me feel worse.
+    <t xml:space="preserve">[name="Dylan"]  Yeah, it's summertime. That's when you put on a swimsuit and go play in the water.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  In that case, I'll play an audio recording of various sea sounds for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  No thanks, it'd only make me feel worse.
 </t>
   </si>
   <si>
@@ -1284,15 +1284,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Err, I’m the one who’s sorry. I didn’t mean it like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Don’t worry about it. By the way, have you seen the sea, Mr. Dylan?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  Um, I have. I’m thinking it was that time we loaned Master SilverAsh an aircraft last summer after a schedule change mixed things up. I flew him there.
+    <t xml:space="preserve">[name="Dylan"]  Err, I'm the one who's sorry. I didn't mean it like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  Don't worry about it. By the way, have you seen the sea, Mr. Dylan?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  Um, I have. I'm thinking it was that time we loaned Master SilverAsh an aircraft last summer after a schedule change mixed things up. I flew him there.
 </t>
   </si>
   <si>
@@ -1300,11 +1300,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Man, that’s when I realized how us poor folks could scarcely imagine what the rich live like.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  Here, I’ve got the pictures with me.
+    <t xml:space="preserve">[name="Dylan"]  Man, that's when I realized how us poor folks could scarcely imagine what the rich live like.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  Here, I've got the pictures with me.
 </t>
   </si>
   <si>
@@ -1312,19 +1312,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Hm? I mean... that was a really great couple of days, but if my whole life was like that, I don’t think I’d ever get used to it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  I’m more of an instant-noodles-in-the-cockpit kind of guy. With an inverted sleep schedule to boot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Oh you can’t do that. Let me formulate a healthy lifestyle plan for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  No thanks, I’m good!
+    <t xml:space="preserve">[name="Dylan"]  Hm? I mean... that was a really great couple of days, but if my whole life was like that, I don't think I'd ever get used to it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  I'm more of an instant-noodles-in-the-cockpit kind of guy. With an inverted sleep schedule to boot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  Oh you can't do that. Let me formulate a healthy lifestyle plan for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  No thanks, I'm good!
 </t>
   </si>
   <si>
@@ -1360,7 +1360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Oh yeah, I just remembered, Gavial said something about a gigantic waterfall in the rainforest that way. I’d love to go there when the Doctor gets back.
+    <t xml:space="preserve">[name="Dylan"]  Oh yeah, I just remembered, Gavial said something about a gigantic waterfall in the rainforest that way. I'd love to go there when the Doctor gets back.
 </t>
   </si>
   <si>
@@ -1368,11 +1368,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  The Doctor is a good boss. And I know our friends wouldn’t abandon us to go play under the waterfall!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  True. Then let’s wait patiently.
+    <t xml:space="preserve">[name="Dylan"]  The Doctor is a good boss. And I know our friends wouldn't abandon us to go play under the waterfall!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  True. Then let's wait patiently.
 </t>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  That’s me!
+    <t xml:space="preserve">[name="Dylan"]  That's me!
 </t>
   </si>
   <si>
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  Yes. And you’re here with the machine. Right, it must be you.
+    <t xml:space="preserve">[name="Inam"]  Yes. And you're here with the machine. Right, it must be you.
 </t>
   </si>
   <si>
@@ -1396,11 +1396,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Hm? Let’s see here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  ...Lancet-2, looks like we’ve got work to do.
+    <t xml:space="preserve">[name="Dylan"]  Hm? Let's see here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  ...Lancet-2, looks like we've got work to do.
 </t>
   </si>
   <si>
@@ -1408,11 +1408,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hah, I didn’t steer you wrong, did I?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Sure enough. I guess I’ll forgive you~
+    <t xml:space="preserve">[name="Gavial"]  Hah, I didn't steer you wrong, did I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Sure enough. I guess I'll forgive you~
 </t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Looks like Tomimi isn’t here yet, so let’s take a little break.
+    <t xml:space="preserve">[name="Gavial"]  Looks like Tomimi isn't here yet, so let's take a little break.
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Heh. Seeing as I’ve got nothing else to do, we might as well go a few rounds.
+    <t xml:space="preserve">[name="Blaze"]  Heh. Seeing as I've got nothing else to do, we might as well go a few rounds.
 </t>
   </si>
   <si>
@@ -1452,35 +1452,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  I don’t see what’s so fun about fighting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  ...I heard you singin’ a whole ‘nother tune last time you was fightin’, Utage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Ahahaha. I guess you’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Hey, Croissant, that isn’t a swimsuit, is it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Ahahaha, ya got me. It’s just some outdoorsy getup I snagged. Plenty waterproof, so we’n pretend it’s a swimsuit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  You’re a real function over form kinda girl, huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  But hey, it may not be a beach, but playing around a waterfall is pretty great too! It’s got that real 'back to nature' vibe. Too bad I didn’t bring my camera.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Ya got that right. I ain’t never been out in the wilds like this before. I’m havin’ a ball!
+    <t xml:space="preserve">[name="Utage"]  I don't see what's so fun about fighting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  ...I heard you singin' a whole 'nother tune last time you was fightin', Utage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Ahahaha. I guess you're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Hey, Croissant, that isn't a swimsuit, is it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ahahaha, ya got me. It's just some outdoorsy getup I snagged. Plenty waterproof, so we'n pretend it's a swimsuit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  You're a real function over form kinda girl, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  But hey, it may not be a beach, but playing around a waterfall is pretty great too! It's got that real 'back to nature' vibe. Too bad I didn't bring my camera.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ya got that right. I ain't never been out in the wilds like this before. I'm havin' a ball!
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Isn’t that Kay?
+    <t xml:space="preserve">[name="Utage"]  Isn't that Kay?
 </t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="It’s nice.;......;Meh.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="It's nice.;......;Meh.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1516,15 +1516,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Looks like you’ve got a lot on your mind, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You’re cruisin’ for a bruisin’, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  From here it’s just a short walk to Zumama’s tribe.
+    <t xml:space="preserve">[name="Gavial"]  Looks like you've got a lot on your mind, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You're cruisin' for a bruisin', Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  From here it's just a short walk to Zumama's tribe.
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  ...Oh, Doctor, there’s one thing that’s been really gnawing at my brain these past few days. We’re friends, right? I wanna ask you about it.
+    <t xml:space="preserve">[name="Gavial"]  ...Oh, Doctor, there's one thing that's been really gnawing at my brain these past few days. We're friends, right? I wanna ask you about it.
 </t>
   </si>
   <si>
@@ -1544,7 +1544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  What’s happening? I’m trying to talk to the Doctor here.
+    <t xml:space="preserve">[name="Gavial"]  What's happening? I'm trying to talk to the Doctor here.
 </t>
   </si>
   <si>
@@ -1564,11 +1564,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Looks like she’s still off in la la land.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  But she’s just so cute rolling around in the water like that.
+    <t xml:space="preserve">[name="Gavial"]  Looks like she's still off in la la land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  But she's just so cute rolling around in the water like that.
 </t>
   </si>
   <si>
@@ -1584,31 +1584,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Do you think my tail’s gotten fatter?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Yes.;......;I didn’t notice.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  What? Really? I guess I’m going on a diet when we get back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Come on, Doctor, don’t look at me like that. An Archosauria’s tail is her most prized asset! This is my life!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Pfft, I knew I shouldn’t have asked you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You don’t know, Tomimi’s tail wasn’t always that fat. And I don’t want mine to end up like hers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="What do you think about Zumama?;......;Let’s talk about tails more.",values="1;2;3")]
+    <t xml:space="preserve">[name="Gavial"]  Do you think my tail's gotten fatter?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Yes.;......;I didn't notice.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  What? Really? I guess I'm going on a diet when we get back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Come on, Doctor, don't look at me like that. An Archosauria's tail is her most prized asset! This is my life!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Pfft, I knew I shouldn't have asked you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You don't know, Tomimi's tail wasn't always that fat. And I don't want mine to end up like hers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What do you think about Zumama?;......;Let's talk about tails more.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I guess I think she’s real tough, and she can make a helluva machine.
+    <t xml:space="preserve">[name="Gavial"]  I guess I think she's real tough, and she can make a helluva machine.
 </t>
   </si>
   <si>
@@ -1624,7 +1624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I had a feeling you’d be down with tails!
+    <t xml:space="preserve">[name="Gavial"]  I had a feeling you'd be down with tails!
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  There’s Tomimi. You done with that thing?
+    <t xml:space="preserve">[name="Gavial"]  There's Tomimi. You done with that thing?
 </t>
   </si>
   <si>
@@ -1648,7 +1648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]   You’re a cutie! Gavial, I never knew you had a friend like this. I thought you just hung around with other muscleheaded lunks like you.
+    <t xml:space="preserve">[name="Utage"]   You're a cutie! Gavial, I never knew you had a friend like this. I thought you just hung around with other muscleheaded lunks like you.
 </t>
   </si>
   <si>
@@ -1656,7 +1656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  She’s got perfect skin, refined features, and a gothy outfit that really goes with her complexion.
+    <t xml:space="preserve">[name="Utage"]  She's got perfect skin, refined features, and a gothy outfit that really goes with her complexion.
 </t>
   </si>
   <si>
@@ -1664,23 +1664,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Well, no. But it’s popular with a certain crowd.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  I-I picked it up from a magazine. They said it’s how they dress in the outside world.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Oh, no, girl, honey. You’ve got a critically flawed understanding of fashion here. But that’s okay. I mean, look at this place. I totally get why you’d come up with something like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  But don’t worry, you just let Big Sister Utage fill you with her bottomless, extra-thick fashion wisdom!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Gavial, I’m borrowing her!
+    <t xml:space="preserve">[name="Utage"]  Well, no. But it's popular with a certain crowd.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  I-I picked it up from a magazine. They said it's how they dress in the outside world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Oh, no, girl, honey. You've got a critically flawed understanding of fashion here. But that's okay. I mean, look at this place. I totally get why you'd come up with something like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  But don't worry, you just let Big Sister Utage fill you with her bottomless, extra-thick fashion wisdom!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Gavial, I'm borrowing her!
 </t>
   </si>
   <si>
@@ -1692,19 +1692,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Anyway, we’re all here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’ll see if I can get Kay to sober up...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  Break time’s over! Kay is back in the fight!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Gavial, she’s makin’ a break for it again!
+    <t xml:space="preserve">[name="Gavial"]  Anyway, we're all here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I'll see if I can get Kay to sober up...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  Break time's over! Kay is back in the fight!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Gavial, she's makin' a break for it again!
 </t>
   </si>
   <si>
@@ -1712,11 +1712,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Grr, everybody, get your clothes on! We’re going after her!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  That direction... it’s the way to Zumama’s tribe...
+    <t xml:space="preserve">[name="Gavial"]  Grr, everybody, get your clothes on! We're going after her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  That direction... it's the way to Zumama's tribe...
 </t>
   </si>
   <si>
